--- a/winner.xlsx
+++ b/winner.xlsx
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>6150</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="16">
